--- a/lab05/Sort Results.xlsx
+++ b/lab05/Sort Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="21585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="21585"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
   <si>
     <t>Sort Method</t>
   </si>
@@ -267,17 +267,66 @@
     <t>gen k = 3</t>
   </si>
   <si>
-    <t>Averages</t>
+    <t>Time (real) in seconds</t>
   </si>
   <si>
-    <t>Time (real) in seconds</t>
+    <t>Can it be?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Why</t>
+  </si>
+  <si>
+    <t>Treats ascending and descending the same</t>
+  </si>
+  <si>
+    <t>too fast</t>
+  </si>
+  <si>
+    <t>No difference between ascending and descending</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>As above</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>n log n</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>No. of Items Sorted</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Average Real Time (seconds)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +336,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -311,10 +377,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,11 +392,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -506,10 +616,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -523,9 +633,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -533,10 +649,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$5:$AJ$5</c:f>
+              <c:f>Results!$AL$6:$AS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.8000000000000005E-3</c:v>
                 </c:pt>
@@ -549,10 +665,16 @@
                 <c:pt idx="3">
                   <c:v>0.7337999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.6546666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>24.023200000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>119.836</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1899.0519999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -636,10 +758,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -653,9 +775,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -663,10 +791,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$6:$AJ$6</c:f>
+              <c:f>Results!$AL$7:$AS$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.9999999999999992E-3</c:v>
                 </c:pt>
@@ -679,10 +807,16 @@
                 <c:pt idx="3">
                   <c:v>2.9199999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.15366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.0084000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.8150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>49.323</c:v>
                 </c:pt>
               </c:numCache>
@@ -698,11 +832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1342417856"/>
-        <c:axId val="-1476380128"/>
+        <c:axId val="-1335918880"/>
+        <c:axId val="-1335923232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1342417856"/>
+        <c:axId val="-1335918880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -745,12 +879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1476380128"/>
+        <c:crossAx val="-1335923232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1476380128"/>
+        <c:axId val="-1335923232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -855,7 +989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1342417856"/>
+        <c:crossAx val="-1335918880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1102,10 +1236,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1119,9 +1253,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1129,10 +1269,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$6:$AJ$6</c:f>
+              <c:f>Results!$AL$7:$AS$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.9999999999999992E-3</c:v>
                 </c:pt>
@@ -1145,10 +1285,16 @@
                 <c:pt idx="3">
                   <c:v>2.9199999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.15366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.0084000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.8150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>49.323</c:v>
                 </c:pt>
               </c:numCache>
@@ -1224,10 +1370,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$8:$AJ$8</c:f>
+              <c:f>Results!$AL$9:$AS$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1241,9 +1387,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1251,10 +1403,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$10:$AJ$10</c:f>
+              <c:f>Results!$AL$11:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
@@ -1267,10 +1419,16 @@
                 <c:pt idx="3">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.2553999999999994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>53.387999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1346,10 +1504,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$12:$AJ$12</c:f>
+              <c:f>Results!$AL$13:$AS$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1363,9 +1521,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1373,10 +1537,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$14:$AJ$14</c:f>
+              <c:f>Results!$AL$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8E-3</c:v>
                 </c:pt>
@@ -1389,10 +1553,16 @@
                 <c:pt idx="3">
                   <c:v>3.0599999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>5.7999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.8022</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.4736666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57.474999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -1408,11 +1578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1728107152"/>
-        <c:axId val="-1728117488"/>
+        <c:axId val="-1145300176"/>
+        <c:axId val="-1145303440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1728107152"/>
+        <c:axId val="-1145300176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1455,12 +1625,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1728117488"/>
+        <c:crossAx val="-1145303440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1728117488"/>
+        <c:axId val="-1145303440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1565,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1728107152"/>
+        <c:crossAx val="-1145300176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1812,10 +1982,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1829,9 +1999,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1839,10 +2015,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$5:$AJ$5</c:f>
+              <c:f>Results!$AL$6:$AS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.8000000000000005E-3</c:v>
                 </c:pt>
@@ -1855,10 +2031,16 @@
                 <c:pt idx="3">
                   <c:v>0.7337999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.6546666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>24.023200000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>119.836</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1899.0519999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1934,10 +2116,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$8:$AJ$8</c:f>
+              <c:f>Results!$AL$9:$AS$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1951,9 +2133,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1961,10 +2149,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$9:$AJ$9</c:f>
+              <c:f>Results!$AL$10:$AS$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
@@ -1977,10 +2165,16 @@
                 <c:pt idx="3">
                   <c:v>0.3886</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.2236666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>22.929999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>124.215</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1983.001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2056,10 +2250,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$12:$AJ$12</c:f>
+              <c:f>Results!$AL$13:$AS$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2073,9 +2267,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2083,10 +2283,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$13:$AJ$13</c:f>
+              <c:f>Results!$AL$14:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.2000000000000006E-3</c:v>
                 </c:pt>
@@ -2099,10 +2299,16 @@
                 <c:pt idx="3">
                   <c:v>0.37720000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.1719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.387999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>118.956</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1939.6389999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2121,6 +2327,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -2165,6 +2372,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -2178,10 +2386,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2195,9 +2403,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2205,10 +2419,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$6:$AJ$6</c:f>
+              <c:f>Results!$AL$7:$AS$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.9999999999999992E-3</c:v>
                 </c:pt>
@@ -2221,10 +2435,16 @@
                 <c:pt idx="3">
                   <c:v>2.9199999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.15366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.0084000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.8150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>49.323</c:v>
                 </c:pt>
               </c:numCache>
@@ -2243,6 +2463,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -2287,6 +2508,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -2300,10 +2522,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$8:$AJ$8</c:f>
+              <c:f>Results!$AL$9:$AS$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2317,9 +2539,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2327,10 +2555,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$10:$AJ$10</c:f>
+              <c:f>Results!$AL$11:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
@@ -2343,10 +2571,16 @@
                 <c:pt idx="3">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.2553999999999994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>53.387999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -2365,6 +2599,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -2409,6 +2644,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -2422,10 +2658,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$12:$AJ$12</c:f>
+              <c:f>Results!$AL$13:$AS$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2439,9 +2675,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2449,10 +2691,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$14:$AJ$14</c:f>
+              <c:f>Results!$AL$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8E-3</c:v>
                 </c:pt>
@@ -2465,10 +2707,16 @@
                 <c:pt idx="3">
                   <c:v>3.0599999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>5.7999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.8022</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.4736666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57.474999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -2484,11 +2732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1342412960"/>
-        <c:axId val="-1342414048"/>
+        <c:axId val="-1145305072"/>
+        <c:axId val="-1145297456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1342412960"/>
+        <c:axId val="-1145305072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2531,12 +2779,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1342414048"/>
+        <c:crossAx val="-1145297456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1342414048"/>
+        <c:axId val="-1145297456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2641,7 +2889,1134 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1342412960"/>
+        <c:crossAx val="-1145305072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Function Comparisons</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n log n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$C$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.219280948873624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>664.38561897747252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9965.7842846620879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132877.1237954945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365241.01186092029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1660964.0474436812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4482892.1423310433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19931547.195061285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$C$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>625000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>999998000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1145301264"/>
+        <c:axId val="-1145301808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1145301264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1145301808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1145301808"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1145301264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Timing Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>sortA Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$AL$5:$AS$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$AL$18:$AS$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5333333333333337E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0666666666666672E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1466666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49986666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3501111111111113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.780399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.00233333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1940.5640000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sortB Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$AL$5:$AS$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$AL$19:$AS$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3333333333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0666666666666673E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.093333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6828888888888898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.395333333333326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1143475648"/>
+        <c:axId val="-1143472928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1143475648"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1143472928"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1143472928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1143475648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2904,10 +4279,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2921,9 +4296,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2931,10 +4312,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$9:$AJ$9</c:f>
+              <c:f>Results!$AL$10:$AS$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
@@ -2947,10 +4328,16 @@
                 <c:pt idx="3">
                   <c:v>0.3886</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.2236666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>22.929999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>124.215</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1983.001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3034,10 +4421,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3051,9 +4438,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3061,10 +4454,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$10:$AJ$10</c:f>
+              <c:f>Results!$AL$11:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
@@ -3077,10 +4470,16 @@
                 <c:pt idx="3">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.2553999999999994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>53.387999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -3096,11 +4495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1342415136"/>
-        <c:axId val="-1482407552"/>
+        <c:axId val="-1146044656"/>
+        <c:axId val="-1146040848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1342415136"/>
+        <c:axId val="-1146044656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3143,12 +4542,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1482407552"/>
+        <c:crossAx val="-1146040848"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1482407552"/>
+        <c:axId val="-1146040848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3253,7 +4652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1342415136"/>
+        <c:crossAx val="-1146044656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3508,10 +4907,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3525,9 +4924,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3535,10 +4940,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$13:$AJ$13</c:f>
+              <c:f>Results!$AL$14:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.2000000000000006E-3</c:v>
                 </c:pt>
@@ -3551,10 +4956,16 @@
                 <c:pt idx="3">
                   <c:v>0.37720000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.1719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.387999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>118.956</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1939.6389999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3638,10 +5049,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3655,9 +5066,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3665,10 +5082,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$14:$AJ$14</c:f>
+              <c:f>Results!$AL$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8E-3</c:v>
                 </c:pt>
@@ -3681,10 +5098,16 @@
                 <c:pt idx="3">
                   <c:v>3.0599999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>5.7999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.8022</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.4736666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57.474999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -3700,11 +5123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1342410784"/>
-        <c:axId val="-1682874048"/>
+        <c:axId val="-1146037584"/>
+        <c:axId val="-1146043568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1342410784"/>
+        <c:axId val="-1146037584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3747,12 +5170,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1682874048"/>
+        <c:crossAx val="-1146043568"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1682874048"/>
+        <c:axId val="-1146043568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3857,7 +5280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1342410784"/>
+        <c:crossAx val="-1146037584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4032,7 +5455,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14313082786468906"/>
+          <c:y val="0.17937901657066788"/>
+          <c:w val="0.78416324221663136"/>
+          <c:h val="0.57964820244386128"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4112,10 +5545,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4129,9 +5562,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4139,10 +5578,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$5:$AJ$5</c:f>
+              <c:f>Results!$AL$6:$AS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.8000000000000005E-3</c:v>
                 </c:pt>
@@ -4155,10 +5594,16 @@
                 <c:pt idx="3">
                   <c:v>0.7337999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.6546666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>24.023200000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>119.836</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1899.0519999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4242,10 +5687,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4259,9 +5704,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4269,10 +5720,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$6:$AJ$6</c:f>
+              <c:f>Results!$AL$7:$AS$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.9999999999999992E-3</c:v>
                 </c:pt>
@@ -4285,10 +5736,16 @@
                 <c:pt idx="3">
                   <c:v>2.9199999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.15366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.0084000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.8150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>49.323</c:v>
                 </c:pt>
               </c:numCache>
@@ -4304,11 +5761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1346560688"/>
-        <c:axId val="-1682879488"/>
+        <c:axId val="-1146044112"/>
+        <c:axId val="-1146050096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1346560688"/>
+        <c:axId val="-1146044112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4351,12 +5808,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1682879488"/>
+        <c:crossAx val="-1146050096"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1682879488"/>
+        <c:axId val="-1146050096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +5917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346560688"/>
+        <c:crossAx val="-1146044112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4723,10 +6180,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4740,9 +6197,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4750,10 +6213,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$9:$AJ$9</c:f>
+              <c:f>Results!$AL$10:$AS$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
@@ -4766,10 +6229,16 @@
                 <c:pt idx="3">
                   <c:v>0.3886</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.2236666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>22.929999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>124.215</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1983.001</c:v>
                 </c:pt>
               </c:numCache>
@@ -4853,10 +6322,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4870,9 +6339,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4880,10 +6355,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$10:$AJ$10</c:f>
+              <c:f>Results!$AL$11:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
@@ -4896,10 +6371,16 @@
                 <c:pt idx="3">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.2553999999999994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>53.387999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -4915,11 +6396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1476374144"/>
-        <c:axId val="-1732046576"/>
+        <c:axId val="-1146037040"/>
+        <c:axId val="-1146042480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1476374144"/>
+        <c:axId val="-1146037040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4962,12 +6443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1732046576"/>
+        <c:crossAx val="-1146042480"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1732046576"/>
+        <c:axId val="-1146042480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5071,7 +6552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1476374144"/>
+        <c:crossAx val="-1146037040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5326,10 +6807,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5343,9 +6824,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5353,10 +6840,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$13:$AJ$13</c:f>
+              <c:f>Results!$AL$14:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.2000000000000006E-3</c:v>
                 </c:pt>
@@ -5369,10 +6856,16 @@
                 <c:pt idx="3">
                   <c:v>0.37720000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.1719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.387999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>118.956</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1939.6389999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5456,10 +6949,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5473,9 +6966,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5483,10 +6982,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$14:$AJ$14</c:f>
+              <c:f>Results!$AL$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8E-3</c:v>
                 </c:pt>
@@ -5499,10 +6998,16 @@
                 <c:pt idx="3">
                   <c:v>3.0599999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>5.7999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.8022</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.4736666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57.474999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -5518,11 +7023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1728114768"/>
-        <c:axId val="-1482410816"/>
+        <c:axId val="-1146041936"/>
+        <c:axId val="-1146051184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1728114768"/>
+        <c:axId val="-1146041936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5565,12 +7070,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1482410816"/>
+        <c:crossAx val="-1146051184"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1482410816"/>
+        <c:axId val="-1146051184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,7 +7179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1728114768"/>
+        <c:crossAx val="-1146041936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5921,10 +7426,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5938,9 +7443,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5948,10 +7459,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$5:$AJ$5</c:f>
+              <c:f>Results!$AL$6:$AS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.8000000000000005E-3</c:v>
                 </c:pt>
@@ -5964,10 +7475,16 @@
                 <c:pt idx="3">
                   <c:v>0.7337999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.6546666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>24.023200000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>119.836</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1899.0519999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6043,10 +7560,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$8:$AJ$8</c:f>
+              <c:f>Results!$AL$9:$AS$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6060,9 +7577,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6070,10 +7593,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$9:$AJ$9</c:f>
+              <c:f>Results!$AL$10:$AS$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
@@ -6086,10 +7609,16 @@
                 <c:pt idx="3">
                   <c:v>0.3886</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.2236666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>22.929999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>124.215</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1983.001</c:v>
                 </c:pt>
               </c:numCache>
@@ -6165,10 +7694,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$12:$AJ$12</c:f>
+              <c:f>Results!$AL$13:$AS$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6182,9 +7711,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6192,10 +7727,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$13:$AJ$13</c:f>
+              <c:f>Results!$AL$14:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.2000000000000006E-3</c:v>
                 </c:pt>
@@ -6208,10 +7743,16 @@
                 <c:pt idx="3">
                   <c:v>0.37720000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.1719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.387999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>118.956</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1939.6389999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6227,11 +7768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1346550352"/>
-        <c:axId val="-1346562320"/>
+        <c:axId val="-1146039216"/>
+        <c:axId val="-1146039760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1346550352"/>
+        <c:axId val="-1146039216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6274,12 +7815,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346562320"/>
+        <c:crossAx val="-1146039760"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1346562320"/>
+        <c:axId val="-1146039760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6383,7 +7924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346550352"/>
+        <c:crossAx val="-1146039216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6630,10 +8171,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6647,9 +8188,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6657,10 +8204,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$6:$AJ$6</c:f>
+              <c:f>Results!$AL$7:$AS$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.9999999999999992E-3</c:v>
                 </c:pt>
@@ -6673,10 +8220,16 @@
                 <c:pt idx="3">
                   <c:v>2.9199999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.15366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.0084000000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.8150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>49.323</c:v>
                 </c:pt>
               </c:numCache>
@@ -6752,10 +8305,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$8:$AJ$8</c:f>
+              <c:f>Results!$AL$9:$AS$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6769,9 +8322,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6779,10 +8338,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$10:$AJ$10</c:f>
+              <c:f>Results!$AL$11:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
@@ -6795,10 +8354,16 @@
                 <c:pt idx="3">
                   <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.2553999999999994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>53.387999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -6874,10 +8439,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$12:$AJ$12</c:f>
+              <c:f>Results!$AL$13:$AS$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6891,9 +8456,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6901,10 +8472,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$14:$AJ$14</c:f>
+              <c:f>Results!$AL$15:$AS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.8E-3</c:v>
                 </c:pt>
@@ -6917,10 +8488,16 @@
                 <c:pt idx="3">
                   <c:v>3.0599999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>5.7999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.8022</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>5.4736666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57.474999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -6936,11 +8513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1335561056"/>
-        <c:axId val="-1339144432"/>
+        <c:axId val="-1146036496"/>
+        <c:axId val="-1146035952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1335561056"/>
+        <c:axId val="-1146036496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6983,12 +8560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1339144432"/>
+        <c:crossAx val="-1146035952"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1339144432"/>
+        <c:axId val="-1146035952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7092,7 +8669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1335561056"/>
+        <c:crossAx val="-1146036496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7339,10 +8916,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$4:$AJ$4</c:f>
+              <c:f>Results!$AL$5:$AS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7356,9 +8933,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -7366,10 +8949,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$5:$AJ$5</c:f>
+              <c:f>Results!$AL$6:$AS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.8000000000000005E-3</c:v>
                 </c:pt>
@@ -7382,10 +8965,16 @@
                 <c:pt idx="3">
                   <c:v>0.7337999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.6546666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>24.023200000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>119.836</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1899.0519999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -7461,10 +9050,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$8:$AJ$8</c:f>
+              <c:f>Results!$AL$9:$AS$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7478,9 +9067,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -7488,10 +9083,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$9:$AJ$9</c:f>
+              <c:f>Results!$AL$10:$AS$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
@@ -7504,10 +9099,16 @@
                 <c:pt idx="3">
                   <c:v>0.3886</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.2236666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>22.929999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>124.215</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1983.001</c:v>
                 </c:pt>
               </c:numCache>
@@ -7583,10 +9184,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$AE$12:$AJ$12</c:f>
+              <c:f>Results!$AL$13:$AS$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -7600,9 +9201,15 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -7610,10 +9217,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AE$13:$AJ$13</c:f>
+              <c:f>Results!$AL$14:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.2000000000000006E-3</c:v>
                 </c:pt>
@@ -7626,10 +9233,16 @@
                 <c:pt idx="3">
                   <c:v>0.37720000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.1719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21.387999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>118.956</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1939.6389999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -7645,11 +9258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1470994304"/>
-        <c:axId val="-1470993760"/>
+        <c:axId val="-1145304528"/>
+        <c:axId val="-1145305616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1470994304"/>
+        <c:axId val="-1145304528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7692,12 +9305,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1470993760"/>
+        <c:crossAx val="-1145305616"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1470993760"/>
+        <c:axId val="-1145305616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7802,7 +9415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1470994304"/>
+        <c:crossAx val="-1145304528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7974,6 +9587,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9821,7 +11514,523 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10317,7 +12526,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10813,7 +13022,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11309,7 +13518,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11805,7 +14014,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12301,7 +14510,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12797,7 +15006,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13293,7 +15502,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13789,19 +15998,515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13825,13 +16530,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13855,15 +16560,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13889,13 +16594,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13921,13 +16626,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13951,15 +16656,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13985,13 +16690,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14017,13 +16722,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14049,13 +16754,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14081,13 +16786,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14112,15 +16817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>233084</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14141,7 +16846,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>4481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19611</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>137273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="AK4:AS19" headerRowCount="0">
+  <tableColumns count="9">
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" headerRowDxfId="1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="2" dataDxfId="3"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14407,10 +17191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A2:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14424,7 +17208,7 @@
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14446,8 +17230,14 @@
       <c r="G2" t="s">
         <v>44</v>
       </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14469,8 +17259,11 @@
       <c r="G3" t="s">
         <v>49</v>
       </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14492,8 +17285,14 @@
       <c r="G4" t="s">
         <v>50</v>
       </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14515,8 +17314,11 @@
       <c r="G5" t="s">
         <v>45</v>
       </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14538,8 +17340,11 @@
       <c r="G6" t="s">
         <v>45</v>
       </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14561,8 +17366,11 @@
       <c r="G7" t="s">
         <v>45</v>
       </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14584,8 +17392,11 @@
       <c r="G8" t="s">
         <v>48</v>
       </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -14607,8 +17418,11 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -14628,10 +17442,13 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -14653,8 +17470,14 @@
       <c r="G11" t="s">
         <v>52</v>
       </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -14674,10 +17497,16 @@
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -14699,8 +17528,11 @@
       <c r="G13" t="s">
         <v>52</v>
       </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -14723,7 +17555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -14746,7 +17578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -14767,6 +17599,12 @@
       </c>
       <c r="G16" t="s">
         <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -14869,10 +17707,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
@@ -14892,10 +17730,10 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -14963,7 +17801,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -14972,58 +17810,71 @@
         <v>77</v>
       </c>
     </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="5"/>
+    </row>
   </sheetData>
+  <sortState ref="D53:D66">
+    <sortCondition descending="1" ref="D52"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB106" sqref="AB106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" customWidth="1"/>
-    <col min="8" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6" customWidth="1"/>
+    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="6" customWidth="1"/>
     <col min="18" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6" customWidth="1"/>
-    <col min="23" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7" customWidth="1"/>
-    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8" customWidth="1"/>
+    <col min="21" max="25" width="6" customWidth="1"/>
+    <col min="26" max="28" width="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="7" customWidth="1"/>
+    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="8" customWidth="1"/>
+    <col min="37" max="37" width="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.140625" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" customWidth="1"/>
+    <col min="43" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="AE3" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -15091,13 +17942,13 @@
         <v>10000</v>
       </c>
       <c r="W4">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="X4">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="Y4">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="Z4">
         <v>100000</v>
@@ -15106,34 +17957,40 @@
         <v>100000</v>
       </c>
       <c r="AB4">
+        <v>100000</v>
+      </c>
+      <c r="AC4">
+        <v>100000</v>
+      </c>
+      <c r="AD4">
+        <v>100000</v>
+      </c>
+      <c r="AE4">
+        <v>250000</v>
+      </c>
+      <c r="AF4">
+        <v>250000</v>
+      </c>
+      <c r="AG4">
+        <v>250000</v>
+      </c>
+      <c r="AH4">
         <v>999999</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
         <v>999999</v>
-      </c>
-      <c r="AD4">
-        <v>999999</v>
-      </c>
-      <c r="AE4">
-        <v>10</v>
-      </c>
-      <c r="AF4">
-        <v>100</v>
-      </c>
-      <c r="AG4">
-        <v>1000</v>
-      </c>
-      <c r="AH4">
-        <v>10000</v>
-      </c>
-      <c r="AI4">
-        <v>100000</v>
       </c>
       <c r="AJ4">
         <v>999999</v>
       </c>
+      <c r="AK4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>19</v>
       </c>
@@ -15201,165 +18058,211 @@
         <v>0.375</v>
       </c>
       <c r="W5">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="X5">
+        <v>1.573</v>
+      </c>
+      <c r="Y5">
+        <v>1.706</v>
+      </c>
+      <c r="Z5">
         <v>22.738</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>25.695</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>28.117999999999999</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>21.715</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>21.85</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
+        <v>119.836</v>
+      </c>
+      <c r="AH5">
         <v>1899.0519999999999</v>
       </c>
-      <c r="AE5">
+      <c r="AK5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>10000</v>
+      </c>
+      <c r="AP5" s="8">
+        <f>W4</f>
+        <v>25000</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AR5" s="8">
+        <f>AE4</f>
+        <v>250000</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T6">
+        <v>0.03</v>
+      </c>
+      <c r="U6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="V6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W6">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="X6">
+        <v>0.152</v>
+      </c>
+      <c r="Y6">
+        <v>0.04</v>
+      </c>
+      <c r="Z6">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>3.1240000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>6.1280000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>5.58</v>
+      </c>
+      <c r="AG6">
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>40.588000000000001</v>
+      </c>
+      <c r="AI6">
+        <v>56.292999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>51.088000000000001</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" s="8">
         <f>AVERAGE(C5:G5)</f>
         <v>5.8000000000000005E-3</v>
       </c>
-      <c r="AF5">
+      <c r="AM6" s="8">
         <f>AVERAGE(H5:L5)</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="AG5">
+      <c r="AN6" s="8">
         <f>AVERAGE(M5:Q5)</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="AH5">
+      <c r="AO6" s="8">
         <f>AVERAGE(R5:V5)</f>
         <v>0.7337999999999999</v>
       </c>
-      <c r="AI5">
-        <f>AVERAGE(W5:AA5)</f>
+      <c r="AP6" s="7">
+        <f>AVERAGE(W5:Y5)</f>
+        <v>1.6546666666666667</v>
+      </c>
+      <c r="AQ6" s="8">
+        <f>AVERAGE(Z5:AD5)</f>
         <v>24.023200000000003</v>
       </c>
-      <c r="AJ5">
-        <f>AVERAGE(AB5:AD5)</f>
+      <c r="AR6" s="7">
+        <f>AVERAGE(AE5:AG5)</f>
+        <v>119.836</v>
+      </c>
+      <c r="AS6" s="8">
+        <f>AVERAGE(AH5:AJ5)</f>
         <v>1899.0519999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="S6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="T6">
-        <v>0.03</v>
-      </c>
-      <c r="U6">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="V6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="W6">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="X6">
-        <v>3.1240000000000001</v>
-      </c>
-      <c r="Y6">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="Z6">
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="AA6">
-        <v>3.9769999999999999</v>
-      </c>
-      <c r="AB6">
-        <v>40.588000000000001</v>
-      </c>
-      <c r="AC6">
-        <v>56.292999999999999</v>
-      </c>
-      <c r="AD6">
-        <v>51.088000000000001</v>
-      </c>
-      <c r="AE6">
-        <f>AVERAGE(C6:G6)</f>
-        <v>4.9999999999999992E-3</v>
-      </c>
-      <c r="AF6">
-        <f>AVERAGE(H6:L6)</f>
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="AG6">
-        <f>AVERAGE(M6:Q6)</f>
-        <v>5.6000000000000008E-3</v>
-      </c>
-      <c r="AH6">
-        <f>AVERAGE(R6:V6)</f>
-        <v>2.9199999999999997E-2</v>
-      </c>
-      <c r="AI6">
-        <f>AVERAGE(W6:AA6)</f>
-        <v>3.0084000000000004</v>
-      </c>
-      <c r="AJ6">
-        <f>AVERAGE(AB6:AD6)</f>
-        <v>49.323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -15373,11 +18276,43 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="AE7" t="s">
-        <v>80</v>
+      <c r="AK7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7" s="8">
+        <f>AVERAGE(C6:G6)</f>
+        <v>4.9999999999999992E-3</v>
+      </c>
+      <c r="AM7" s="8">
+        <f>AVERAGE(H6:L6)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="AN7" s="8">
+        <f>AVERAGE(M6:Q6)</f>
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="AO7" s="8">
+        <f>AVERAGE(R6:V6)</f>
+        <v>2.9199999999999997E-2</v>
+      </c>
+      <c r="AP7" s="7">
+        <f>AVERAGE(W6:Y6)</f>
+        <v>0.15366666666666667</v>
+      </c>
+      <c r="AQ7" s="8">
+        <f>AVERAGE(Z6:AD6)</f>
+        <v>3.0084000000000004</v>
+      </c>
+      <c r="AR7" s="7">
+        <f>AVERAGE(AE6:AG6)</f>
+        <v>5.8150000000000004</v>
+      </c>
+      <c r="AS7" s="8">
+        <f>AVERAGE(AH6:AJ6)</f>
+        <v>49.323</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -15445,13 +18380,13 @@
         <v>10000</v>
       </c>
       <c r="W8">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="X8">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="Y8">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="Z8">
         <v>100000</v>
@@ -15460,34 +18395,47 @@
         <v>100000</v>
       </c>
       <c r="AB8">
+        <v>100000</v>
+      </c>
+      <c r="AC8">
+        <v>100000</v>
+      </c>
+      <c r="AD8">
+        <v>100000</v>
+      </c>
+      <c r="AE8">
+        <v>250000</v>
+      </c>
+      <c r="AF8">
+        <v>250000</v>
+      </c>
+      <c r="AG8">
+        <v>250000</v>
+      </c>
+      <c r="AH8">
         <v>999999</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
         <v>999999</v>
-      </c>
-      <c r="AD8">
-        <v>999999</v>
-      </c>
-      <c r="AE8">
-        <v>10</v>
-      </c>
-      <c r="AF8">
-        <v>100</v>
-      </c>
-      <c r="AG8">
-        <v>1000</v>
-      </c>
-      <c r="AH8">
-        <v>10000</v>
-      </c>
-      <c r="AI8">
-        <v>100000</v>
       </c>
       <c r="AJ8">
         <v>999999</v>
       </c>
+      <c r="AK8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>19</v>
       </c>
@@ -15555,174 +18503,252 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="W9">
+        <v>1.228</v>
+      </c>
+      <c r="X9">
+        <v>1.216</v>
+      </c>
+      <c r="Y9">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="Z9">
         <v>21.972999999999999</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>22.388999999999999</v>
       </c>
-      <c r="Y9">
+      <c r="AB9">
         <v>24.24</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>22.173999999999999</v>
       </c>
-      <c r="AA9">
+      <c r="AD9">
         <v>23.873999999999999</v>
       </c>
-      <c r="AB9">
+      <c r="AE9">
+        <v>124.215</v>
+      </c>
+      <c r="AH9">
         <v>1983.001</v>
       </c>
-      <c r="AE9">
+      <c r="AK9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>10000</v>
+      </c>
+      <c r="AP9" s="8">
+        <f>W8</f>
+        <v>25000</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AR9" s="8">
+        <f>AVERAGE(AE8:AG8)</f>
+        <v>250000</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="V10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="W10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="X10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y10">
+        <v>0.04</v>
+      </c>
+      <c r="Z10">
+        <v>3.47</v>
+      </c>
+      <c r="AA10">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="AC10">
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="AG10">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="AH10">
+        <v>54.335000000000001</v>
+      </c>
+      <c r="AI10">
+        <v>60.779000000000003</v>
+      </c>
+      <c r="AJ10">
+        <v>45.05</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" s="8">
         <f>AVERAGE(C9:G9)</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AF9">
+      <c r="AM10" s="8">
         <f>AVERAGE(H9:L9)</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="AG9">
+      <c r="AN10" s="8">
         <f>AVERAGE(M9:Q9)</f>
         <v>1.4600000000000002E-2</v>
       </c>
-      <c r="AH9">
+      <c r="AO10" s="8">
         <f>AVERAGE(R9:V9)</f>
         <v>0.3886</v>
       </c>
-      <c r="AI9">
-        <f>AVERAGE(W9:AA9)</f>
+      <c r="AP10" s="7">
+        <f>AVERAGE(W9:Y9)</f>
+        <v>1.2236666666666667</v>
+      </c>
+      <c r="AQ10" s="8">
+        <f>AVERAGE(Z9:AD9)</f>
         <v>22.929999999999996</v>
       </c>
-      <c r="AJ9">
-        <f>AVERAGE(AB9:AD9)</f>
+      <c r="AR10" s="7">
+        <f>AVERAGE(AE9:AG9)</f>
+        <v>124.215</v>
+      </c>
+      <c r="AS10" s="8">
+        <f>AVERAGE(AH9:AJ9)</f>
         <v>1983.001</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="AK11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R10">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="S10">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="T10">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U10">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="V10">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="W10">
-        <v>3.47</v>
-      </c>
-      <c r="X10">
-        <v>2.7829999999999999</v>
-      </c>
-      <c r="Y10">
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="Z10">
-        <v>2.3820000000000001</v>
-      </c>
-      <c r="AA10">
-        <v>3.3580000000000001</v>
-      </c>
-      <c r="AB10">
-        <v>54.335000000000001</v>
-      </c>
-      <c r="AC10">
-        <v>60.779000000000003</v>
-      </c>
-      <c r="AD10">
-        <v>45.05</v>
-      </c>
-      <c r="AE10">
+      <c r="AL11" s="8">
         <f>AVERAGE(C10:G10)</f>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="AF10">
+      <c r="AM11" s="8">
         <f>AVERAGE(H10:L10)</f>
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="AG10">
+      <c r="AN11" s="8">
         <f>AVERAGE(M10:Q10)</f>
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="AH10">
+      <c r="AO11" s="8">
         <f>AVERAGE(R10:V10)</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AI10">
-        <f>AVERAGE(W10:AA10)</f>
+      <c r="AP11" s="7">
+        <f>AVERAGE(W10:Y10)</f>
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="AQ11" s="8">
+        <f>AVERAGE(Z10:AD10)</f>
         <v>3.2553999999999994</v>
       </c>
-      <c r="AJ10">
-        <f>AVERAGE(AB10:AD10)</f>
+      <c r="AR11" s="7">
+        <f>AVERAGE(AE10:AG10)</f>
+        <v>5.7600000000000007</v>
+      </c>
+      <c r="AS11" s="8">
+        <f>AVERAGE(AH10:AJ10)</f>
         <v>53.387999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="AE11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -15790,13 +18816,13 @@
         <v>10000</v>
       </c>
       <c r="W12">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="X12">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="Y12">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="Z12">
         <v>100000</v>
@@ -15805,34 +18831,47 @@
         <v>100000</v>
       </c>
       <c r="AB12">
+        <v>100000</v>
+      </c>
+      <c r="AC12">
+        <v>100000</v>
+      </c>
+      <c r="AD12">
+        <v>100000</v>
+      </c>
+      <c r="AE12">
+        <v>250000</v>
+      </c>
+      <c r="AF12">
+        <v>250000</v>
+      </c>
+      <c r="AG12">
+        <v>250000</v>
+      </c>
+      <c r="AH12">
         <v>999999</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
         <v>999999</v>
-      </c>
-      <c r="AD12">
-        <v>999999</v>
-      </c>
-      <c r="AE12">
-        <v>10</v>
-      </c>
-      <c r="AF12">
-        <v>100</v>
-      </c>
-      <c r="AG12">
-        <v>1000</v>
-      </c>
-      <c r="AH12">
-        <v>10000</v>
-      </c>
-      <c r="AI12">
-        <v>100000</v>
       </c>
       <c r="AJ12">
         <v>999999</v>
       </c>
+      <c r="AK12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -15899,234 +18938,570 @@
       <c r="V13">
         <v>0.376</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13">
+        <v>1.177</v>
+      </c>
+      <c r="X13">
+        <v>1.165</v>
+      </c>
+      <c r="Y13">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="Z13" s="1">
         <v>21.552</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
         <v>20.885000000000002</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <v>21.344000000000001</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <v>20.922000000000001</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AD13" s="1">
         <v>22.236999999999998</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AE13" s="1">
+        <v>118.956</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1">
         <v>1939.6389999999999</v>
       </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13">
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="AP13" s="8">
+        <f>W12</f>
+        <v>25000</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AR13" s="8">
+        <f>AVERAGE(AE12:AG12)</f>
+        <v>250000</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="V14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="X14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Y14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Z14">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>2.8290000000000002</v>
+      </c>
+      <c r="AB14">
+        <v>3.089</v>
+      </c>
+      <c r="AC14">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="AE14">
+        <v>5.327</v>
+      </c>
+      <c r="AF14">
+        <v>5.5259999999999998</v>
+      </c>
+      <c r="AG14">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="AH14">
+        <v>42.415999999999997</v>
+      </c>
+      <c r="AI14">
+        <v>88.712999999999994</v>
+      </c>
+      <c r="AJ14">
+        <v>41.295999999999999</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" s="8">
         <f>AVERAGE(C13:G13)</f>
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="AF13">
+      <c r="AM14" s="8">
         <f>AVERAGE(H13:L13)</f>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AG13">
+      <c r="AN14" s="8">
         <f>AVERAGE(M13:Q13)</f>
         <v>0.01</v>
       </c>
-      <c r="AH13">
+      <c r="AO14" s="8">
         <f>AVERAGE(R13:V13)</f>
         <v>0.37720000000000004</v>
       </c>
-      <c r="AI13">
-        <f>AVERAGE(W13:AA13)</f>
+      <c r="AP14" s="7">
+        <f>AVERAGE(W13:Y13)</f>
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="AQ14" s="8">
+        <f>AVERAGE(Z13:AD13)</f>
         <v>21.387999999999998</v>
       </c>
-      <c r="AJ13">
-        <f>AVERAGE(AB13:AD13)</f>
+      <c r="AR14" s="7">
+        <f>AVERAGE(AE13:AG13)</f>
+        <v>118.956</v>
+      </c>
+      <c r="AS14" s="8">
+        <f>AVERAGE(AH13:AJ13)</f>
         <v>1939.6389999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="AK15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E14">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Q14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="S14">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="T14">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U14">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="V14">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="W14">
-        <v>3.0409999999999999</v>
-      </c>
-      <c r="X14">
-        <v>2.8290000000000002</v>
-      </c>
-      <c r="Y14">
-        <v>3.089</v>
-      </c>
-      <c r="Z14">
-        <v>2.3069999999999999</v>
-      </c>
-      <c r="AA14">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>42.415999999999997</v>
-      </c>
-      <c r="AC14">
-        <v>88.712999999999994</v>
-      </c>
-      <c r="AD14">
-        <v>41.295999999999999</v>
-      </c>
-      <c r="AE14">
+      <c r="AL15" s="8">
         <f>AVERAGE(C14:G14)</f>
         <v>3.8E-3</v>
       </c>
-      <c r="AF14">
+      <c r="AM15" s="8">
         <f>AVERAGE(H14:L14)</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AG14">
+      <c r="AN15" s="8">
         <f>AVERAGE(M14:Q14)</f>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="AH14">
+      <c r="AO15" s="8">
         <f>AVERAGE(R14:V14)</f>
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AI14">
-        <f>AVERAGE(W14:AA14)</f>
+      <c r="AP15" s="7">
+        <f>AVERAGE(W14:Y14)</f>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="AQ15" s="8">
+        <f>AVERAGE(Z14:AD14)</f>
         <v>2.8022</v>
       </c>
-      <c r="AJ14">
-        <f>AVERAGE(AB14:AD14)</f>
+      <c r="AR15" s="7">
+        <f>AVERAGE(AE14:AG14)</f>
+        <v>5.4736666666666665</v>
+      </c>
+      <c r="AS15" s="8">
+        <f>AVERAGE(AH14:AJ14)</f>
         <v>57.474999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>10000</v>
+      </c>
+      <c r="H16">
+        <v>25000</v>
+      </c>
+      <c r="I16">
+        <v>100000</v>
+      </c>
+      <c r="J16">
+        <v>250000</v>
+      </c>
+      <c r="K16">
+        <v>999999</v>
+      </c>
+      <c r="AK16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <f>C16*LOG(C16,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:K17" si="0">D16*LOG(D16,2)</f>
+        <v>33.219280948873624</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>664.38561897747252</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>365241.01186092029</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>4482892.1423310433</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>19931547.195061285</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM17" s="8">
+        <v>100</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AO17" s="8">
+        <v>10000</v>
+      </c>
+      <c r="AP17" s="8">
+        <f>AP13</f>
+        <v>25000</v>
+      </c>
+      <c r="AQ17" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AR17" s="8">
+        <f>AR13</f>
+        <v>250000</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <f>C16*C16</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:K18" si="1">D16*D16</f>
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>625000000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>10000000000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>62500000000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>999998000001</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" s="9">
+        <f>AVERAGE(AL6,AL10,AL14)</f>
+        <v>4.5333333333333337E-3</v>
+      </c>
+      <c r="AM18" s="9">
+        <f t="shared" ref="AM18:AS18" si="2">AVERAGE(AM6,AM10,AM14)</f>
+        <v>4.0666666666666672E-3</v>
+      </c>
+      <c r="AN18" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1466666666666667E-2</v>
+      </c>
+      <c r="AO18" s="9">
+        <f t="shared" si="2"/>
+        <v>0.49986666666666663</v>
+      </c>
+      <c r="AP18" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3501111111111113</v>
+      </c>
+      <c r="AQ18" s="9">
+        <f t="shared" si="2"/>
+        <v>22.780399999999997</v>
+      </c>
+      <c r="AR18" s="9">
+        <f t="shared" si="2"/>
+        <v>121.00233333333334</v>
+      </c>
+      <c r="AS18" s="9">
+        <f t="shared" si="2"/>
+        <v>1940.5640000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
+      <c r="AK19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL19" s="9">
+        <f>AVERAGE(AL7,AL11,AL15)</f>
+        <v>4.3333333333333331E-3</v>
+      </c>
+      <c r="AM19" s="9">
+        <f t="shared" ref="AM19:AS19" si="3">AVERAGE(AM7,AM11,AM15)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="AN19" s="9">
+        <f t="shared" si="3"/>
+        <v>6.0666666666666673E-3</v>
+      </c>
+      <c r="AO19" s="9">
+        <f t="shared" si="3"/>
+        <v>3.093333333333333E-2</v>
+      </c>
+      <c r="AP19" s="9">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AQ19" s="9">
+        <f t="shared" si="3"/>
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="AR19" s="9">
+        <f t="shared" si="3"/>
+        <v>5.6828888888888898</v>
+      </c>
+      <c r="AS19" s="9">
+        <f t="shared" si="3"/>
+        <v>53.395333333333326</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" display="n^@"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>